--- a/神秘事件.xlsx
+++ b/神秘事件.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project_game\design_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298C5B00-5865-440B-8FEC-6E3F667FA9DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E40CDE-9EE1-4D4B-A496-7FC643FE020D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="85">
   <si>
     <t>1技能=50金币</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -360,6 +360,10 @@
   </si>
   <si>
     <t>获得100金币（需要当前生命值总和&gt;200）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得10金币和1件白色装备</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -700,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="R29" sqref="R29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1123,6 +1127,12 @@
       <c r="K31" t="s">
         <v>79</v>
       </c>
+      <c r="N31" t="s">
+        <v>17</v>
+      </c>
+      <c r="O31" t="s">
+        <v>84</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/神秘事件.xlsx
+++ b/神秘事件.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project_game\design_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E40CDE-9EE1-4D4B-A496-7FC643FE020D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A829628-4661-4D9B-9862-2EE39B664A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="第一章节事件" sheetId="1" r:id="rId1"/>
+    <sheet name="1遗忘边崖" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="102">
   <si>
     <t>1技能=50金币</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -364,6 +365,74 @@
   </si>
   <si>
     <t>获得10金币和1件白色装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项1后续</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项2后续</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项3后续</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有任何装备时选项将被锁定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有任何技能（普攻不算技能）时选项将被锁定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有任何遗物时选项将被锁定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成事件并退出至地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丢弃技能后，显示后续选项并获得200金币，完成事件并退出至地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丢弃技能后，显示后续选项并获得100金币，完成事件并退出至地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丢弃装备后，显示后续选项并获得120金币，完成事件并退出至地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项[离开]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在屏幕中心打开背包，从所有装备中选择一件装备，点击确认按钮即可丢弃装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在屏幕中心打开技能栏，从所有技能中选择一个技能，点击确认按钮即可遗忘技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在屏幕中心打开遗物栏，从所有技能中选择一件遗物，点击确认按钮即可丢弃遗物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击确定按钮后关闭背包，点击返回按钮返回选项选择界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击确定按钮后关闭技能栏，点击返回按钮返回选项选择界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击确定按钮后关闭遗物栏，点击返回按钮返回选项选择界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -371,7 +440,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -395,6 +464,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -416,12 +492,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -437,6 +514,363 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>132673</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>180850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A885B89-E5D4-BDC7-3255-F5D892AE0C04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="885825" y="3981450"/>
+          <a:ext cx="5419048" cy="1000000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>208873</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>113855</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC4678B7-0A65-2EC5-5AE9-13DA6A2A6401}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="962025" y="333375"/>
+          <a:ext cx="5419048" cy="3561905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>180304</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>113857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFAB06A2-EAFC-D9F4-6B9E-846F659F9C28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="981075" y="9172575"/>
+          <a:ext cx="5371429" cy="3542857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>361279</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>94812</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F49A507F-753E-4B0F-1AEF-F7E5B5E85F98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858000" y="9191625"/>
+          <a:ext cx="5371429" cy="3504762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>408905</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>104337</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A43A9A9C-6C90-7993-D652-6BFC5E1E7297}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12877800" y="9201150"/>
+          <a:ext cx="5361905" cy="3504762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>208874</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>75763</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64EB7159-BAD1-6727-0594-6A0309C5C9EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="971550" y="5581650"/>
+          <a:ext cx="5409524" cy="3495238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>389849</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>123386</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6408BF97-2BEC-9802-83AA-0BAABAD418DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6848475" y="5610225"/>
+          <a:ext cx="5409524" cy="3514286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>494621</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>199630</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5BB415B-9B84-89EF-BD4D-CD1755D29B1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12896850" y="5838825"/>
+          <a:ext cx="5428571" cy="3161905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -704,8 +1138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1138,4 +1572,146 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3F19DB-9DC5-4FF6-B4B7-E7180D56B719}">
+  <dimension ref="C4:T28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="10" width="9" style="3"/>
+    <col min="11" max="11" width="11.75" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="L10" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="L11" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="L12" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="L15" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="L16" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="L17" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="K19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="L20" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="L21" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="L22" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="K24" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C28" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="T28" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>